--- a/Task table.xlsx
+++ b/Task table.xlsx
@@ -53,7 +53,7 @@
     <t>Guidance</t>
   </si>
   <si>
-    <t>9/22/2024</t>
+    <t>9/23/2024</t>
   </si>
   <si>
     <t>Finished</t>
@@ -68,10 +68,19 @@
     <t>Preparation for the competition</t>
   </si>
   <si>
+    <t>9/24/2024</t>
+  </si>
+  <si>
     <t>Drone</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>Assembling drone</t>
     </r>
     <r>
@@ -97,9 +106,6 @@
     <t>Preparation for delivery</t>
   </si>
   <si>
-    <t>9/23/2024</t>
-  </si>
-  <si>
     <t>Undone</t>
   </si>
   <si>
@@ -112,7 +118,7 @@
     <t>Ensurance the security and accuracy</t>
   </si>
   <si>
-    <t>9/24/2024</t>
+    <t>9/25/2024</t>
   </si>
   <si>
     <t>Drone, Polygon X, QGround Control, and computer</t>
@@ -128,6 +134,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Testing </t>
     </r>
     <r>
@@ -162,7 +174,7 @@
     <t>Complete Hackthon</t>
   </si>
   <si>
-    <t>9/25/2024</t>
+    <t>9/26/2024</t>
   </si>
 </sst>
 </file>
@@ -348,14 +360,14 @@
     </font>
     <font>
       <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -837,7 +849,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -847,13 +859,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1386,8 +1392,8 @@
   <sheetPr/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1404,127 +1410,127 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" ht="85" customHeight="1" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="34" customHeight="1" spans="1:5">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="48" customHeight="1" spans="1:5">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>13</v>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" ht="57" spans="1:5">
-      <c r="A5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" ht="38.25" spans="1:5">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" ht="57" spans="1:5">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" ht="78" customHeight="1" spans="1:5">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>25</v>
       </c>
     </row>
